--- a/Assignment/HW3/FP_heads_100.xlsx
+++ b/Assignment/HW3/FP_heads_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hws-PortilloD/Assignment/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AD20BB71-51FF-4B48-B679-B3B8A29A032A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D77A09E2-6111-47E9-A382-EF21F93F9873}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{AD20BB71-51FF-4B48-B679-B3B8A29A032A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F342FC99-803B-410B-BC96-351F5359890E}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="16080" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP_heads" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>k_incl</t>
   </si>
@@ -41,6 +41,27 @@
   </si>
   <si>
     <t>k_overall</t>
+  </si>
+  <si>
+    <t>dH1</t>
+  </si>
+  <si>
+    <t>dH2</t>
+  </si>
+  <si>
+    <t>dH3</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>avg dH</t>
   </si>
 </sst>
 </file>
@@ -2877,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40DA9F6-B975-442A-A455-D0A1A06D7ACE}">
-  <dimension ref="A2:Z26"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,6 +4931,41 @@
         <v>3.9999999799999988</v>
       </c>
     </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(A2:A26)</f>
+        <v>4.5352960480000002</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>A29/10/10</f>
+        <v>1.133824012</v>
+      </c>
+      <c r="F28">
+        <f>A29/(10/100)</f>
+        <v>1133.824012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28*25</f>
+        <v>113.3824012</v>
+      </c>
+      <c r="B29">
+        <f>A28/25</f>
+        <v>0.18141184192000001</v>
+      </c>
+      <c r="E29">
+        <f>B29/10/100</f>
+        <v>1.8141184192E-4</v>
+      </c>
+      <c r="F29">
+        <f>B29/(10/100)</f>
+        <v>1.8141184191999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4917,12 +4973,483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28424B7-66ED-4DA9-BCB5-EC57C9209191}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>FP_heads!A11-FP_heads!I11</f>
+        <v>3.8369029999999995</v>
+      </c>
+      <c r="D5">
+        <f>FP_heads!J11-FP_heads!O11</f>
+        <v>0.93699999999999939</v>
+      </c>
+      <c r="E5">
+        <f>FP_heads!P11-FP_heads!Y11</f>
+        <v>4.3245070000000005</v>
+      </c>
+      <c r="G5">
+        <f>C14/(C5/10)</f>
+        <v>12.523141971532771</v>
+      </c>
+      <c r="H5">
+        <f>D14/(D5/10)</f>
+        <v>24.030337780149424</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="0">E14/(E5/10)</f>
+        <v>10.000000416232414</v>
+      </c>
+      <c r="K5">
+        <f>24/((C3/G12)+(D3/H12)+(E3/I12))</f>
+        <v>14.595964875063146</v>
+      </c>
+      <c r="L5">
+        <f>K5/10</f>
+        <v>1.4595964875063145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>FP_heads!A12-FP_heads!I12</f>
+        <v>3.9665320000000008</v>
+      </c>
+      <c r="D6">
+        <f>FP_heads!J12-FP_heads!O12</f>
+        <v>0.44304799999999922</v>
+      </c>
+      <c r="E6">
+        <f>FP_heads!P12-FP_heads!Y12</f>
+        <v>4.5775310000000005</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="1">C15/(C6/10)</f>
+        <v>12.822651233985868</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H11" si="2">D15/(D6/10)</f>
+        <v>214.70742974425681</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>10.000000152920865</v>
+      </c>
+      <c r="L6">
+        <f>K5/24</f>
+        <v>0.60816520312763112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>FP_heads!A13-FP_heads!I13</f>
+        <v>4.0328590000000002</v>
+      </c>
+      <c r="D7">
+        <f>FP_heads!J13-FP_heads!O13</f>
+        <v>0.37212900000000104</v>
+      </c>
+      <c r="E7">
+        <f>FP_heads!P13-FP_heads!Y13</f>
+        <v>4.6457329999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>12.7996690574988</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>219.67641507828313</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>10.000000753379501</v>
+      </c>
+      <c r="K7">
+        <f>24/((C3/G21)+(D3/H21)+(E3/I21))</f>
+        <v>14.494855311566834</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="3">K7/10</f>
+        <v>1.4494855311566834</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>FP_heads!A14-FP_heads!I14</f>
+        <v>4.0522589999999994</v>
+      </c>
+      <c r="D8">
+        <f>FP_heads!J14-FP_heads!O14</f>
+        <v>0.35634500000000102</v>
+      </c>
+      <c r="E8">
+        <f>FP_heads!P14-FP_heads!Y14</f>
+        <v>4.6606649999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>12.77933205486948</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>218.82040531881495</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>9.9999990773848797</v>
+      </c>
+      <c r="L8">
+        <f>K7/24</f>
+        <v>0.60395230464861804</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>FP_heads!A15-FP_heads!I15</f>
+        <v>4.0328590000000002</v>
+      </c>
+      <c r="D9">
+        <f>FP_heads!J15-FP_heads!O15</f>
+        <v>0.37212900000000104</v>
+      </c>
+      <c r="E9">
+        <f>FP_heads!P15-FP_heads!Y15</f>
+        <v>4.6457329999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>12.799669222807497</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>219.67641731764999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>10.000000645753859</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>FP_heads!A16-FP_heads!I16</f>
+        <v>3.9665320000000008</v>
+      </c>
+      <c r="D10">
+        <f>FP_heads!J16-FP_heads!O16</f>
+        <v>0.44304799999999922</v>
+      </c>
+      <c r="E10">
+        <f>FP_heads!P16-FP_heads!Y16</f>
+        <v>4.5775310000000005</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>12.822651177961557</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>214.7074259824372</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>10.000000021845837</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>FP_heads!A17-FP_heads!I17</f>
+        <v>3.8369029999999995</v>
+      </c>
+      <c r="D11">
+        <f>FP_heads!J17-FP_heads!O17</f>
+        <v>0.93699999999999939</v>
+      </c>
+      <c r="E11">
+        <f>FP_heads!P17-FP_heads!Y17</f>
+        <v>4.3245070000000005</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>12.523141971532771</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>24.030337780149424</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10.000000693720692</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C5:C11)</f>
+        <v>3.9606924285714284</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:E12" si="4">AVERAGE(D5:D11)</f>
+        <v>0.55152842857142859</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>4.5366010000000001</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G5:G11)</f>
+        <v>12.724322384312675</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:I12" si="5">AVERAGE(H5:H11)</f>
+        <v>162.23553842882012</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>10.000000251605433</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(flux!A11:I11)</f>
+        <v>4.8050080999999993</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(flux!J11:O11)</f>
+        <v>2.2516426499999995</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(flux!P11:Y11)</f>
+        <v>4.3245071799999995</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G20" si="6">C14/($C$12/10)</f>
+        <v>12.131737534926701</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H20" si="7">D14/($D$12/10)</f>
+        <v>40.825504785532353</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I20" si="8">E14/($E$12/10)</f>
+        <v>9.5324829756903888</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>AVERAGE(flux!A12:I12)</f>
+        <v>5.0861456444444446</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(flux!J12:O12)</f>
+        <v>9.5125697333333328</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(flux!P12:Y12)</f>
+        <v>4.57753107</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>12.841556713049171</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>172.4765078379157</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>10.090221886385864</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>AVERAGE(flux!A13:I13)</f>
+        <v>5.1619260555555559</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(flux!J13:O13)</f>
+        <v>8.174796466666665</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(flux!P13:Y13)</f>
+        <v>4.6457333500000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>13.032887932217946</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>148.22076330391636</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>10.240559727425886</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>AVERAGE(flux!A14:I14)</f>
+        <v>5.1785163333333335</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(flux!J14:O14)</f>
+        <v>7.7975557333333336</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(flux!P14:Y14)</f>
+        <v>4.6606645699999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>13.074775248834857</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>141.38084873576867</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>10.273472518301697</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>AVERAGE(flux!A15:I15)</f>
+        <v>5.1619261222222219</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(flux!J15:O15)</f>
+        <v>8.1747965499999999</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(flux!P15:Y15)</f>
+        <v>4.6457333000000007</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>13.032888100538681</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>148.22076481486903</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>10.240559617211213</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>AVERAGE(flux!A16:I16)</f>
+        <v>5.0861456222222223</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(flux!J16:O16)</f>
+        <v>9.5125695666666665</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(flux!P16:Y16)</f>
+        <v>4.5775310099999995</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>12.841556656942258</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>172.47650481601042</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>10.090221754128255</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>AVERAGE(flux!A17:I17)</f>
+        <v>4.8050080999999993</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(flux!J17:O17)</f>
+        <v>2.2516426499999995</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(flux!P17:Y17)</f>
+        <v>4.3245072999999996</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>12.131737534926701</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>40.825504785532353</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>9.5324832402056074</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f>AVERAGE(G14:G20)</f>
+        <v>12.726734245919474</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I21" si="9">AVERAGE(H14:H20)</f>
+        <v>123.48948558279211</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="9"/>
+        <v>10.000000245621274</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4931,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59D2C3E-2823-4AEF-889E-F9647B0DB345}">
   <dimension ref="A3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,7 +5603,8 @@
         <v>5.2</v>
       </c>
       <c r="I8">
-        <v>1.0900000000000001</v>
+        <f>flux!E28</f>
+        <v>1.133824012</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
